--- a/Location_based_analysis/heatmap/data/wsl_R8.xlsx
+++ b/Location_based_analysis/heatmap/data/wsl_R8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rainfall\Location_based_analysis\heatmap\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78693A8E-E349-4C53-9166-ECB49709CE17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E656089-6C18-4856-B29D-D96810B585A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>实验组</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wv_x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wv_y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -103,7 +111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,6 +121,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -394,39 +405,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S47"/>
+  <dimension ref="A1:U47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="L38" sqref="L3:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="M1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -451,32 +467,38 @@
       <c r="I2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="J2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>44022</v>
       </c>
@@ -504,35 +526,44 @@
       <c r="I3" s="2">
         <v>0</v>
       </c>
-      <c r="K3" s="3">
+      <c r="J3" s="2">
+        <v>0.56119891344004058</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4.5119541735015867</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
         <v>44013</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>5.2598208130000002</v>
       </c>
-      <c r="M3" s="2">
+      <c r="O3" s="2">
         <v>4.0886426589999996</v>
       </c>
-      <c r="N3" s="2">
+      <c r="P3" s="2">
         <v>4.2179836509999999</v>
       </c>
-      <c r="O3" s="2">
+      <c r="Q3" s="2">
         <v>4.288088643</v>
       </c>
-      <c r="P3" s="2">
+      <c r="R3" s="2">
         <v>3.9696760850000001</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="S3" s="2">
         <v>4.3726708070000004</v>
       </c>
-      <c r="R3" s="2">
+      <c r="T3" s="2">
         <v>4.3666436940000004</v>
       </c>
-      <c r="S3" s="2">
+      <c r="U3" s="2">
         <v>4.0886426589999996</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>44023</v>
       </c>
@@ -560,15 +591,18 @@
       <c r="I4" s="2">
         <v>5</v>
       </c>
-      <c r="K4" s="3">
+      <c r="J4" s="2">
+        <v>2.191347050243158</v>
+      </c>
+      <c r="K4" s="2">
+        <v>8.4170979795556615</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
         <v>44024</v>
       </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
       <c r="N4" s="2">
         <v>0</v>
       </c>
@@ -587,8 +621,14 @@
       <c r="S4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>44028</v>
       </c>
@@ -616,35 +656,44 @@
       <c r="I5" s="2">
         <v>2.8859709740000001</v>
       </c>
-      <c r="K5" s="3">
+      <c r="J5" s="2">
+        <v>4.3987518215413033</v>
+      </c>
+      <c r="K5" s="2">
+        <v>5.1215846081426868</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
         <v>44025</v>
       </c>
-      <c r="L5" s="2">
+      <c r="N5" s="2">
         <v>4.0717241380000004</v>
       </c>
-      <c r="M5" s="2">
+      <c r="O5" s="2">
         <v>5.3520336610000001</v>
       </c>
-      <c r="N5" s="2">
+      <c r="P5" s="2">
         <v>4.0239520960000004</v>
       </c>
-      <c r="O5" s="2">
+      <c r="Q5" s="2">
         <v>4.2352941179999997</v>
       </c>
-      <c r="P5" s="2">
+      <c r="R5" s="2">
         <v>2.6813793100000001</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="S5" s="2">
         <v>4.0773480659999999</v>
       </c>
-      <c r="R5" s="2">
+      <c r="T5" s="2">
         <v>3.3742246730000001</v>
       </c>
-      <c r="S5" s="2">
+      <c r="U5" s="2">
         <v>4.8796680500000003</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>44033</v>
       </c>
@@ -672,15 +721,18 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-      <c r="K6" s="3">
+      <c r="J6" s="2">
+        <v>1.7574868610231076</v>
+      </c>
+      <c r="K6" s="2">
+        <v>4.1794151815681762</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
         <v>44026</v>
       </c>
-      <c r="L6" s="2">
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
       <c r="N6" s="2">
         <v>0</v>
       </c>
@@ -699,8 +751,14 @@
       <c r="S6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>44035</v>
       </c>
@@ -728,15 +786,18 @@
       <c r="I7" s="2">
         <v>13.18169209</v>
       </c>
-      <c r="K7" s="3">
+      <c r="J7" s="2">
+        <v>1.3697085794548189</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.1170800533997434</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
         <v>44027</v>
       </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
       <c r="N7" s="2">
         <v>0</v>
       </c>
@@ -755,8 +816,14 @@
       <c r="S7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>44037</v>
       </c>
@@ -784,15 +851,18 @@
       <c r="I8" s="2">
         <v>0</v>
       </c>
-      <c r="K8" s="3">
+      <c r="J8" s="2">
+        <v>11.315370261560732</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10.382999095950186</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
         <v>44031</v>
       </c>
-      <c r="L8" s="2">
-        <v>0</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
@@ -811,8 +881,14 @@
       <c r="S8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>44038</v>
       </c>
@@ -840,15 +916,18 @@
       <c r="I9" s="2">
         <v>0</v>
       </c>
-      <c r="K9" s="3">
+      <c r="J9" s="2">
+        <v>8.2688715475515746</v>
+      </c>
+      <c r="K9" s="2">
+        <v>7.917348234255595</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
         <v>44032</v>
       </c>
-      <c r="L9" s="2">
-        <v>0</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
@@ -867,8 +946,14 @@
       <c r="S9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>44041</v>
       </c>
@@ -896,35 +981,44 @@
       <c r="I10" s="2">
         <v>0</v>
       </c>
-      <c r="K10" s="3">
+      <c r="J10" s="2">
+        <v>-5.4114315376853446</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6.7496764492629078</v>
+      </c>
+      <c r="L10" s="2">
+        <v>2</v>
+      </c>
+      <c r="M10" s="3">
         <v>44036</v>
       </c>
-      <c r="L10" s="2">
+      <c r="N10" s="2">
         <v>0.596685083</v>
       </c>
-      <c r="M10" s="2">
+      <c r="O10" s="2">
         <v>2.3107221010000001</v>
       </c>
-      <c r="N10" s="2">
+      <c r="P10" s="2">
         <v>0.472440945</v>
       </c>
-      <c r="O10" s="2">
+      <c r="Q10" s="2">
         <v>0.31349782300000001</v>
       </c>
-      <c r="P10" s="2">
+      <c r="R10" s="2">
         <v>9.9241902000000007E-2</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="S10" s="2">
         <v>0.49689441000000001</v>
       </c>
-      <c r="R10" s="2">
+      <c r="T10" s="2">
         <v>0.19862068999999999</v>
       </c>
-      <c r="S10" s="2">
+      <c r="U10" s="2">
         <v>3.1191335740000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>44044</v>
       </c>
@@ -952,15 +1046,18 @@
       <c r="I11" s="2">
         <v>0</v>
       </c>
-      <c r="K11" s="3">
+      <c r="J11" s="2">
+        <v>-5.1927767416129473</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2.1247069829070853</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="3">
         <v>44040</v>
       </c>
-      <c r="L11" s="2">
-        <v>0</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
       <c r="N11" s="2">
         <v>0</v>
       </c>
@@ -979,8 +1076,14 @@
       <c r="S11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>44045</v>
       </c>
@@ -1008,15 +1111,18 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
+      <c r="J12" s="2">
+        <v>-3.1299615460022774</v>
+      </c>
+      <c r="K12" s="2">
+        <v>4.311984660887398</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2</v>
+      </c>
+      <c r="M12" s="3">
         <v>44043</v>
       </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
       <c r="N12" s="2">
         <v>0</v>
       </c>
@@ -1035,8 +1141,14 @@
       <c r="S12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>44049</v>
       </c>
@@ -1064,35 +1176,44 @@
       <c r="I13" s="2">
         <v>9.9585062000000002E-2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="J13" s="2">
+        <v>3.8763743008319738</v>
+      </c>
+      <c r="K13" s="2">
+        <v>5.8376000819819103</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
         <v>44047</v>
       </c>
-      <c r="L13" s="2">
+      <c r="N13" s="2">
         <v>8.1434482760000009</v>
       </c>
-      <c r="M13" s="2">
+      <c r="O13" s="2">
         <v>6.8808864270000001</v>
       </c>
-      <c r="N13" s="2">
+      <c r="P13" s="2">
         <v>3.6802096990000002</v>
       </c>
-      <c r="O13" s="2">
+      <c r="Q13" s="2">
         <v>6.7905686550000004</v>
       </c>
-      <c r="P13" s="2">
+      <c r="R13" s="2">
         <v>3.8731034480000002</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="S13" s="2">
         <v>8.2541436459999993</v>
       </c>
-      <c r="R13" s="2">
+      <c r="T13" s="2">
         <v>3.2772413789999999</v>
       </c>
-      <c r="S13" s="2">
+      <c r="U13" s="2">
         <v>6.975778547</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>44053</v>
       </c>
@@ -1120,15 +1241,18 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-      <c r="K14" s="3">
+      <c r="J14" s="2">
+        <v>-8.7767310303535311</v>
+      </c>
+      <c r="K14" s="2">
+        <v>-1.5839090197437113</v>
+      </c>
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3">
         <v>44051</v>
       </c>
-      <c r="L14" s="2">
-        <v>0</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
       <c r="N14" s="2">
         <v>0</v>
       </c>
@@ -1145,10 +1269,16 @@
         <v>0</v>
       </c>
       <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
         <v>0.19807427799999999</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>44055</v>
       </c>
@@ -1176,35 +1306,44 @@
       <c r="I15" s="2">
         <v>5.0929264910000001</v>
       </c>
-      <c r="K15" s="3">
+      <c r="J15" s="2">
+        <v>4.3250923501005492</v>
+      </c>
+      <c r="K15" s="2">
+        <v>11.090855392058884</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
         <v>44052</v>
       </c>
-      <c r="L15" s="2">
+      <c r="N15" s="2">
         <v>0.69613259699999996</v>
       </c>
-      <c r="M15" s="2">
+      <c r="O15" s="2">
         <v>0.99722991699999997</v>
       </c>
-      <c r="N15" s="2">
+      <c r="P15" s="2">
         <v>0.92248558599999997</v>
       </c>
-      <c r="O15" s="2">
+      <c r="Q15" s="2">
         <v>1.0006949270000001</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.29793103399999998</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1.0946786449999999</v>
       </c>
       <c r="R15" s="2">
         <v>0.29793103399999998</v>
       </c>
       <c r="S15" s="2">
+        <v>1.0946786449999999</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0.29793103399999998</v>
+      </c>
+      <c r="U15" s="2">
         <v>1.29550173</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>44056</v>
       </c>
@@ -1232,21 +1371,24 @@
       <c r="I16" s="2">
         <v>0.59709744300000001</v>
       </c>
-      <c r="K16" s="3">
+      <c r="J16" s="2">
+        <v>-3.4397014551903364</v>
+      </c>
+      <c r="K16" s="2">
+        <v>8.6105310328132428E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="3">
         <v>44089</v>
       </c>
-      <c r="L16" s="2">
-        <v>0</v>
-      </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
         <v>9.9585062000000002E-2</v>
       </c>
-      <c r="N16" s="2">
-        <v>0</v>
-      </c>
-      <c r="O16" s="2">
-        <v>0</v>
-      </c>
       <c r="P16" s="2">
         <v>0</v>
       </c>
@@ -1259,8 +1401,14 @@
       <c r="S16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>44067</v>
       </c>
@@ -1288,15 +1436,18 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="K17" s="3">
+      <c r="J17" s="2">
+        <v>-3.9052528555683264</v>
+      </c>
+      <c r="K17" s="2">
+        <v>3.1559290986233357</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
         <v>44090</v>
       </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
       <c r="N17" s="2">
         <v>0</v>
       </c>
@@ -1315,8 +1466,14 @@
       <c r="S17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>44068</v>
       </c>
@@ -1344,35 +1501,44 @@
       <c r="I18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="3">
+      <c r="J18" s="2">
+        <v>-0.22273515736878305</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.6244178131388185</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="3">
         <v>44091</v>
       </c>
-      <c r="L18" s="2">
+      <c r="N18" s="2">
         <v>0.29793103399999998</v>
       </c>
-      <c r="M18" s="2">
+      <c r="O18" s="2">
         <v>9.9516240000000006E-2</v>
       </c>
-      <c r="N18" s="2">
+      <c r="P18" s="2">
         <v>9.8765432E-2</v>
       </c>
-      <c r="O18" s="2">
+      <c r="Q18" s="2">
         <v>9.9585062000000002E-2</v>
       </c>
-      <c r="P18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
         <v>0.19862068999999999</v>
       </c>
-      <c r="R18" s="2">
+      <c r="T18" s="2">
         <v>9.9241902000000007E-2</v>
       </c>
-      <c r="S18" s="2">
+      <c r="U18" s="2">
         <v>0.29813664600000001</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>44069</v>
       </c>
@@ -1400,15 +1566,18 @@
       <c r="I19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="3">
+      <c r="J19" s="2">
+        <v>-3.9473472267675036</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.8898191986917208</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="3">
         <v>44092</v>
       </c>
-      <c r="L19" s="2">
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
       <c r="N19" s="2">
         <v>0</v>
       </c>
@@ -1427,8 +1596,14 @@
       <c r="S19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>44070</v>
       </c>
@@ -1456,15 +1631,18 @@
       <c r="I20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="3">
+      <c r="J20" s="2">
+        <v>-3.690512584658256</v>
+      </c>
+      <c r="K20" s="2">
+        <v>4.1442261701181691</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="3">
         <v>44093</v>
       </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
       <c r="N20" s="2">
         <v>0</v>
       </c>
@@ -1483,8 +1661,14 @@
       <c r="S20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>44071</v>
       </c>
@@ -1512,15 +1696,18 @@
       <c r="I21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="3">
+      <c r="J21" s="2">
+        <v>-4.6592840504256534</v>
+      </c>
+      <c r="K21" s="2">
+        <v>3.8308708693455511</v>
+      </c>
+      <c r="L21" s="2">
+        <v>2</v>
+      </c>
+      <c r="M21" s="3">
         <v>44094</v>
       </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
       <c r="N21" s="2">
         <v>0</v>
       </c>
@@ -1539,8 +1726,14 @@
       <c r="S21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="T21" s="2">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>44072</v>
       </c>
@@ -1568,35 +1761,44 @@
       <c r="I22" s="2">
         <v>33.284429070000002</v>
       </c>
-      <c r="K22" s="3">
+      <c r="J22" s="2">
+        <v>4.3603926473586432</v>
+      </c>
+      <c r="K22" s="2">
+        <v>4.2131095053650105</v>
+      </c>
+      <c r="L22" s="2">
+        <v>1</v>
+      </c>
+      <c r="M22" s="3">
         <v>44095</v>
       </c>
-      <c r="L22" s="2">
+      <c r="N22" s="2">
         <v>7.1454169539999999</v>
       </c>
-      <c r="M22" s="2">
+      <c r="O22" s="2">
         <v>14.9068323</v>
       </c>
-      <c r="N22" s="2">
+      <c r="P22" s="2">
         <v>9.4344827589999998</v>
       </c>
-      <c r="O22" s="2">
+      <c r="Q22" s="2">
         <v>7.2646855559999999</v>
       </c>
-      <c r="P22" s="2">
+      <c r="R22" s="2">
         <v>5.9586206900000001</v>
       </c>
-      <c r="Q22" s="2">
+      <c r="S22" s="2">
         <v>7.8509316770000002</v>
       </c>
-      <c r="R22" s="2">
+      <c r="T22" s="2">
         <v>5.8472126629999996</v>
       </c>
-      <c r="S22" s="2">
+      <c r="U22" s="2">
         <v>15.492413790000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>44073</v>
       </c>
@@ -1624,35 +1826,44 @@
       <c r="I23" s="2">
         <v>4.3817427389999999</v>
       </c>
-      <c r="K23" s="3">
+      <c r="J23" s="2">
+        <v>0.43481072840670371</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.2549837977188654</v>
+      </c>
+      <c r="L23" s="2">
+        <v>1</v>
+      </c>
+      <c r="M23" s="3">
         <v>44096</v>
       </c>
-      <c r="L23" s="2">
+      <c r="N23" s="2">
         <v>0.89379310300000003</v>
       </c>
-      <c r="M23" s="2">
+      <c r="O23" s="2">
         <v>1.5933609959999999</v>
       </c>
-      <c r="N23" s="2">
+      <c r="P23" s="2">
         <v>0.74563106800000001</v>
       </c>
-      <c r="O23" s="2">
+      <c r="Q23" s="2">
         <v>0.59833795000000001</v>
       </c>
-      <c r="P23" s="2">
+      <c r="R23" s="2">
         <v>0.59504132200000004</v>
       </c>
-      <c r="Q23" s="2">
+      <c r="S23" s="2">
         <v>1.0939226520000001</v>
       </c>
-      <c r="R23" s="2">
+      <c r="T23" s="2">
         <v>0.49620951099999999</v>
       </c>
-      <c r="S23" s="2">
+      <c r="U23" s="2">
         <v>1.788819876</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>44074</v>
       </c>
@@ -1680,43 +1891,52 @@
       <c r="I24" s="2">
         <v>3.0786206900000002</v>
       </c>
-      <c r="K24" t="s">
+      <c r="J24" s="2">
+        <v>-4.1294522730941594</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0.71436893090023768</v>
+      </c>
+      <c r="L24" s="2">
+        <v>2</v>
+      </c>
+      <c r="M24" t="s">
         <v>10</v>
       </c>
-      <c r="L24">
-        <f>AVERAGE(L3:L23)</f>
+      <c r="N24">
+        <f>AVERAGE(N3:N23)</f>
         <v>1.290711999904762</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24:S24" si="0">AVERAGE(M3:M23)</f>
+      <c r="O24">
+        <f t="shared" ref="O24:U24" si="0">AVERAGE(O3:O23)</f>
         <v>1.729943303</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <f t="shared" si="0"/>
         <v>1.1236167255238096</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <f t="shared" si="0"/>
         <v>1.1709882254285715</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <f t="shared" si="0"/>
         <v>0.83214256147619059</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <f t="shared" si="0"/>
         <v>1.3066290758571426</v>
       </c>
-      <c r="R24">
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>0.85511074028571432</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <f t="shared" si="0"/>
         <v>1.8160080547619049</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>44075</v>
       </c>
@@ -1744,8 +1964,17 @@
       <c r="I25" s="2">
         <v>0.49792531099999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J25" s="2">
+        <v>4.1632673066827861</v>
+      </c>
+      <c r="K25" s="2">
+        <v>6.8220055163478373</v>
+      </c>
+      <c r="L25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>44076</v>
       </c>
@@ -1773,8 +2002,17 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J26" s="2">
+        <v>-2.8790070455764183</v>
+      </c>
+      <c r="K26" s="2">
+        <v>3.5194107257724374</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>44077</v>
       </c>
@@ -1802,8 +2040,17 @@
       <c r="I27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J27" s="2">
+        <v>-0.22106547116755762</v>
+      </c>
+      <c r="K27" s="2">
+        <v>4.0366422705875511</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>44078</v>
       </c>
@@ -1831,8 +2078,17 @@
       <c r="I28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J28" s="2">
+        <v>-1.3880121334544062</v>
+      </c>
+      <c r="K28" s="2">
+        <v>4.094774011108794</v>
+      </c>
+      <c r="L28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>44079</v>
       </c>
@@ -1860,8 +2116,17 @@
       <c r="I29" s="2">
         <v>3.3788819879999998</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J29" s="2">
+        <v>0.31220385066738032</v>
+      </c>
+      <c r="K29" s="2">
+        <v>6.0327505934794443</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>44080</v>
       </c>
@@ -1889,8 +2154,17 @@
       <c r="I30" s="2">
         <v>0.29834254100000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J30" s="2">
+        <v>-3.3664447001585693</v>
+      </c>
+      <c r="K30" s="2">
+        <v>0.58962174500811193</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>44081</v>
       </c>
@@ -1918,8 +2192,17 @@
       <c r="I31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J31" s="2">
+        <v>-4.0658630123992436</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.14641590907712904</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>44082</v>
       </c>
@@ -1947,8 +2230,17 @@
       <c r="I32" s="2">
         <v>7.6786703599999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="2">
+        <v>-4.2527326666487113</v>
+      </c>
+      <c r="K32" s="2">
+        <v>5.5355866035148411</v>
+      </c>
+      <c r="L32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>44083</v>
       </c>
@@ -1976,8 +2268,17 @@
       <c r="I33" s="2">
         <v>4.9723756909999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="2">
+        <v>4.1700027740744989</v>
+      </c>
+      <c r="K33" s="2">
+        <v>5.7976132105915053</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>44084</v>
       </c>
@@ -2005,8 +2306,17 @@
       <c r="I34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="2">
+        <v>-2.7431338146210802</v>
+      </c>
+      <c r="K34" s="2">
+        <v>4.3064141826213564</v>
+      </c>
+      <c r="L34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>44085</v>
       </c>
@@ -2034,8 +2344,17 @@
       <c r="I35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="2">
+        <v>-2.1194982103596192</v>
+      </c>
+      <c r="K35" s="2">
+        <v>5.6267136788022842</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>44086</v>
       </c>
@@ -2063,8 +2382,17 @@
       <c r="I36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="2">
+        <v>-2.2446172606325634</v>
+      </c>
+      <c r="K36" s="2">
+        <v>4.0670495537250915</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>44087</v>
       </c>
@@ -2092,8 +2420,17 @@
       <c r="I37" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="2">
+        <v>-0.45706771580290528</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3.865891693962733</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>44088</v>
       </c>
@@ -2121,8 +2458,17 @@
       <c r="I38" s="2">
         <v>13.04564315</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="2">
+        <v>-0.78050708420772552</v>
+      </c>
+      <c r="K38" s="2">
+        <v>7.4820305816840618</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>44097</v>
       </c>
@@ -2150,8 +2496,10 @@
       <c r="I39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>44098</v>
       </c>
@@ -2179,8 +2527,10 @@
       <c r="I40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>44099</v>
       </c>
@@ -2208,8 +2558,10 @@
       <c r="I41" s="2">
         <v>3.182320442</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>44100</v>
       </c>
@@ -2237,8 +2589,10 @@
       <c r="I42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>44101</v>
       </c>
@@ -2266,8 +2620,10 @@
       <c r="I43" s="2">
         <v>1.3922651930000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>44102</v>
       </c>
@@ -2295,8 +2651,10 @@
       <c r="I44" s="2">
         <v>12.14966985</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44103</v>
       </c>
@@ -2324,8 +2682,10 @@
       <c r="I45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>44104</v>
       </c>
@@ -2353,8 +2713,10 @@
       <c r="I46" s="2">
         <v>10.946786449999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2394,7 +2756,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="K1:S1"/>
+    <mergeCell ref="M1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
